--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Nahomi Castro.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Nahomi Castro.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="470">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -9355,28 +9355,13 @@
       </c>
     </row>
     <row r="46" ht="15.6" customHeight="true">
-      <c r="Z46" s="100" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA46" s="105" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AB46" s="105" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="AC46" s="102" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="Z46" s="100"/>
+      <c r="AA46" s="105"/>
+      <c r="AB46" s="105"/>
+      <c r="AC46" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
@@ -9386,6 +9371,13 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Nahomi Castro.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Nahomi Castro.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="471">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -1434,6 +1434,9 @@
   </si>
   <si>
     <t>31/10/2022</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -5703,7 +5706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="490">
+  <cellXfs count="498">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6839,6 +6842,30 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -7368,36 +7395,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="true"/>
-    <col min="2" max="2" width="6.77734375" customWidth="true"/>
-    <col min="3" max="3" width="6.77734375" customWidth="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true"/>
-    <col min="7" max="7" width="6.77734375" customWidth="true"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true"/>
-    <col min="9" max="9" width="2.77734375" customWidth="true"/>
-    <col min="10" max="10" width="6.77734375" customWidth="true"/>
-    <col min="11" max="11" width="6.77734375" customWidth="true"/>
-    <col min="12" max="12" width="6.77734375" customWidth="true"/>
-    <col min="13" max="13" width="6.77734375" customWidth="true"/>
-    <col min="14" max="14" width="6.77734375" customWidth="true"/>
-    <col min="15" max="15" width="6.77734375" customWidth="true"/>
-    <col min="16" max="16" width="6.77734375" customWidth="true"/>
-    <col min="17" max="17" width="2.77734375" customWidth="true"/>
-    <col min="18" max="18" width="6.77734375" customWidth="true"/>
-    <col min="19" max="19" width="6.77734375" customWidth="true"/>
-    <col min="20" max="20" width="6.77734375" customWidth="true"/>
-    <col min="21" max="21" width="6.77734375" customWidth="true"/>
-    <col min="22" max="22" width="6.77734375" customWidth="true"/>
-    <col min="23" max="23" width="6.77734375" customWidth="true"/>
-    <col min="24" max="24" width="6.77734375" customWidth="true"/>
-    <col min="25" max="25" width="10.0" customWidth="true"/>
-    <col min="26" max="26" width="6.0" customWidth="true"/>
-    <col min="27" max="27" width="21.77734375" customWidth="true"/>
-    <col min="28" max="28" width="21.77734375" customWidth="true"/>
-    <col min="29" max="29" width="21.77734375" customWidth="true"/>
-    <col min="30" max="30" width="10.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="true">
@@ -9391,23 +9418,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -9987,23 +10014,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10590,23 +10617,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11185,23 +11212,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11787,23 +11814,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11982,33 +12009,42 @@
       <c r="B18" s="127" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="G18" s="125" t="n">
-        <f>((E18-C18)*24)-1</f>
-        <v>0.0</v>
+      <c r="C18" s="490" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="490" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="125" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
       <c r="B19" s="127" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="G19" s="125" t="n">
-        <f>((E19-C19)*24)-1</f>
-        <v>0.0</v>
+      <c r="C19" s="490" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="490" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="125" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
       <c r="B20" s="127" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="G20" s="125" t="n">
-        <f>((E20-C20)*24)-1</f>
-        <v>0.0</v>
+      <c r="C20" s="490" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="490" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="125" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
@@ -12025,8 +12061,12 @@
       <c r="B22" s="127" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="E22" s="128"/>
+      <c r="C22" s="494" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E22" s="494" t="n">
+        <v>0.7013888888888888</v>
+      </c>
       <c r="G22" s="125" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -12056,8 +12096,12 @@
       <c r="B25" s="127" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="128"/>
-      <c r="E25" s="128"/>
+      <c r="C25" s="494" t="n">
+        <v>0.3402777777777778</v>
+      </c>
+      <c r="E25" s="494" t="n">
+        <v>0.7152777777777778</v>
+      </c>
       <c r="G25" s="125" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -12067,8 +12111,12 @@
       <c r="B26" s="127" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="E26" s="128"/>
+      <c r="C26" s="494" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E26" s="494" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G26" s="125" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -12078,8 +12126,12 @@
       <c r="B27" s="127" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="128"/>
-      <c r="E27" s="128"/>
+      <c r="C27" s="494" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E27" s="494" t="n">
+        <v>0.71875</v>
+      </c>
       <c r="G27" s="125" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -12089,8 +12141,12 @@
       <c r="B28" s="127" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="E28" s="128"/>
+      <c r="C28" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G28" s="125" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -12100,8 +12156,12 @@
       <c r="B29" s="127" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="128"/>
-      <c r="E29" s="128"/>
+      <c r="C29" s="494" t="n">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="E29" s="494" t="n">
+        <v>0.7048611111111112</v>
+      </c>
       <c r="G29" s="125" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12131,8 +12191,12 @@
       <c r="B32" s="127" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="128"/>
-      <c r="E32" s="128"/>
+      <c r="C32" s="494" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E32" s="494" t="n">
+        <v>0.71875</v>
+      </c>
       <c r="G32" s="125" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12142,8 +12206,12 @@
       <c r="B33" s="127" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="128"/>
-      <c r="E33" s="128"/>
+      <c r="C33" s="494" t="n">
+        <v>0.3402777777777778</v>
+      </c>
+      <c r="E33" s="494" t="n">
+        <v>0.7152777777777778</v>
+      </c>
       <c r="G33" s="125" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12153,8 +12221,12 @@
       <c r="B34" s="127" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="128"/>
-      <c r="E34" s="128"/>
+      <c r="C34" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E34" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G34" s="125" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -12164,8 +12236,12 @@
       <c r="B35" s="127" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="128"/>
-      <c r="E35" s="128"/>
+      <c r="C35" s="494" t="n">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="E35" s="494" t="n">
+        <v>0.7333333333333333</v>
+      </c>
       <c r="G35" s="125" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -12175,8 +12251,12 @@
       <c r="B36" s="127" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="128"/>
-      <c r="E36" s="128"/>
+      <c r="C36" s="494" t="n">
+        <v>0.3368055555555556</v>
+      </c>
+      <c r="E36" s="494" t="n">
+        <v>0.7118055555555556</v>
+      </c>
       <c r="G36" s="125" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12206,8 +12286,12 @@
       <c r="B39" s="127" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="128"/>
-      <c r="E39" s="128"/>
+      <c r="C39" s="494" t="n">
+        <v>0.33611111111111114</v>
+      </c>
+      <c r="E39" s="494" t="n">
+        <v>0.7111111111111111</v>
+      </c>
       <c r="G39" s="125" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12217,8 +12301,12 @@
       <c r="B40" s="127" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="128"/>
-      <c r="E40" s="128"/>
+      <c r="C40" s="494" t="n">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="E40" s="494" t="n">
+        <v>0.7048611111111112</v>
+      </c>
       <c r="G40" s="125" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12228,8 +12316,12 @@
       <c r="B41" s="127" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="128"/>
-      <c r="E41" s="128"/>
+      <c r="C41" s="494" t="n">
+        <v>0.3402777777777778</v>
+      </c>
+      <c r="E41" s="494" t="n">
+        <v>0.7152777777777778</v>
+      </c>
       <c r="G41" s="125" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -12239,8 +12331,12 @@
       <c r="B42" s="127" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="128"/>
-      <c r="E42" s="128"/>
+      <c r="C42" s="494" t="n">
+        <v>0.3423611111111111</v>
+      </c>
+      <c r="E42" s="494" t="n">
+        <v>0.7173611111111111</v>
+      </c>
       <c r="G42" s="125" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -12250,8 +12346,12 @@
       <c r="B43" s="127" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="128"/>
-      <c r="E43" s="128"/>
+      <c r="C43" s="494" t="n">
+        <v>0.33402777777777776</v>
+      </c>
+      <c r="E43" s="494" t="n">
+        <v>0.7090277777777778</v>
+      </c>
       <c r="G43" s="125" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -12281,8 +12381,12 @@
       <c r="B46" s="127" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="128"/>
-      <c r="E46" s="128"/>
+      <c r="C46" s="494" t="n">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="E46" s="494" t="n">
+        <v>0.7069444444444445</v>
+      </c>
       <c r="G46" s="125" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -12411,23 +12515,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -12585,8 +12689,12 @@
       <c r="B16" s="161" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="E16" s="162"/>
+      <c r="C16" s="495" t="n">
+        <v>0.3375</v>
+      </c>
+      <c r="E16" s="495" t="n">
+        <v>0.7125</v>
+      </c>
       <c r="G16" s="159" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -12596,8 +12704,12 @@
       <c r="B17" s="161" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="E17" s="162"/>
+      <c r="C17" s="495" t="n">
+        <v>0.3368055555555556</v>
+      </c>
+      <c r="E17" s="495" t="n">
+        <v>0.7118055555555556</v>
+      </c>
       <c r="G17" s="159" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -12607,8 +12719,12 @@
       <c r="B18" s="161" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="E18" s="162"/>
+      <c r="C18" s="495" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E18" s="495" t="n">
+        <v>0.7013888888888888</v>
+      </c>
       <c r="G18" s="159" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -12618,8 +12734,12 @@
       <c r="B19" s="161" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="162"/>
-      <c r="E19" s="162"/>
+      <c r="C19" s="495" t="n">
+        <v>0.3388888888888889</v>
+      </c>
+      <c r="E19" s="495" t="n">
+        <v>0.7138888888888889</v>
+      </c>
       <c r="G19" s="159" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -12649,8 +12769,12 @@
       <c r="B22" s="161" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="162"/>
-      <c r="E22" s="162"/>
+      <c r="C22" s="495" t="n">
+        <v>0.33541666666666664</v>
+      </c>
+      <c r="E22" s="495" t="n">
+        <v>0.7104166666666667</v>
+      </c>
       <c r="G22" s="159" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -12660,8 +12784,12 @@
       <c r="B23" s="161" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="E23" s="162"/>
+      <c r="C23" s="495" t="n">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="E23" s="495" t="n">
+        <v>0.7048611111111112</v>
+      </c>
       <c r="G23" s="159" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -12671,8 +12799,12 @@
       <c r="B24" s="161" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="162"/>
-      <c r="E24" s="162"/>
+      <c r="C24" s="495" t="n">
+        <v>0.3375</v>
+      </c>
+      <c r="E24" s="495" t="n">
+        <v>0.7125</v>
+      </c>
       <c r="G24" s="159" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -12682,8 +12814,12 @@
       <c r="B25" s="161" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="162"/>
-      <c r="E25" s="162"/>
+      <c r="C25" s="495" t="n">
+        <v>0.3402777777777778</v>
+      </c>
+      <c r="E25" s="495" t="n">
+        <v>0.7152777777777778</v>
+      </c>
       <c r="G25" s="159" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -12693,8 +12829,12 @@
       <c r="B26" s="161" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="162"/>
-      <c r="E26" s="162"/>
+      <c r="C26" s="495" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E26" s="495" t="n">
+        <v>0.71875</v>
+      </c>
       <c r="G26" s="159" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -12724,8 +12864,12 @@
       <c r="B29" s="161" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="162"/>
-      <c r="E29" s="162"/>
+      <c r="C29" s="495" t="n">
+        <v>0.3368055555555556</v>
+      </c>
+      <c r="E29" s="495" t="n">
+        <v>0.7118055555555556</v>
+      </c>
       <c r="G29" s="159" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12735,8 +12879,12 @@
       <c r="B30" s="161" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="162"/>
-      <c r="E30" s="162"/>
+      <c r="C30" s="495" t="n">
+        <v>0.3402777777777778</v>
+      </c>
+      <c r="E30" s="495" t="n">
+        <v>0.7152777777777778</v>
+      </c>
       <c r="G30" s="159" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -12746,8 +12894,12 @@
       <c r="B31" s="161" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="162"/>
-      <c r="E31" s="162"/>
+      <c r="C31" s="495" t="n">
+        <v>0.34444444444444444</v>
+      </c>
+      <c r="E31" s="495" t="n">
+        <v>0.7194444444444444</v>
+      </c>
       <c r="G31" s="159" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -12757,8 +12909,12 @@
       <c r="B32" s="161" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="162"/>
-      <c r="E32" s="162"/>
+      <c r="C32" s="495" t="n">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="E32" s="495" t="n">
+        <v>0.7048611111111112</v>
+      </c>
       <c r="G32" s="159" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12768,8 +12924,12 @@
       <c r="B33" s="161" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="162"/>
-      <c r="E33" s="162"/>
+      <c r="C33" s="495" t="n">
+        <v>0.3416666666666667</v>
+      </c>
+      <c r="E33" s="495" t="n">
+        <v>0.7166666666666667</v>
+      </c>
       <c r="G33" s="159" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12799,8 +12959,12 @@
       <c r="B36" s="161" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="162"/>
-      <c r="E36" s="162"/>
+      <c r="C36" s="495" t="n">
+        <v>0.34305555555555556</v>
+      </c>
+      <c r="E36" s="495" t="n">
+        <v>0.7180555555555556</v>
+      </c>
       <c r="G36" s="159" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12810,8 +12974,12 @@
       <c r="B37" s="161" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="162"/>
-      <c r="E37" s="162"/>
+      <c r="C37" s="495" t="n">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="E37" s="495" t="n">
+        <v>0.7069444444444445</v>
+      </c>
       <c r="G37" s="159" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -12821,8 +12989,12 @@
       <c r="B38" s="161" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="162"/>
-      <c r="E38" s="162"/>
+      <c r="C38" s="495" t="n">
+        <v>0.3784722222222222</v>
+      </c>
+      <c r="E38" s="495" t="n">
+        <v>0.7534722222222222</v>
+      </c>
       <c r="G38" s="159" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -12832,8 +13004,12 @@
       <c r="B39" s="161" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="162"/>
-      <c r="E39" s="162"/>
+      <c r="C39" s="495" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E39" s="495" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G39" s="159" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12843,8 +13019,12 @@
       <c r="B40" s="161" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="162"/>
-      <c r="E40" s="162"/>
+      <c r="C40" s="495" t="n">
+        <v>0.3416666666666667</v>
+      </c>
+      <c r="E40" s="495" t="n">
+        <v>0.7166666666666667</v>
+      </c>
       <c r="G40" s="159" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12874,8 +13054,12 @@
       <c r="B43" s="161" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="162"/>
-      <c r="E43" s="162"/>
+      <c r="C43" s="495" t="n">
+        <v>0.38125</v>
+      </c>
+      <c r="E43" s="495" t="n">
+        <v>0.75625</v>
+      </c>
       <c r="G43" s="159" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -13020,23 +13204,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13194,8 +13378,12 @@
       <c r="B16" s="195" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="196"/>
-      <c r="E16" s="196"/>
+      <c r="C16" s="497" t="n">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="E16" s="497" t="n">
+        <v>0.7569444444444444</v>
+      </c>
       <c r="G16" s="193" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -13205,8 +13393,12 @@
       <c r="B17" s="195" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="196"/>
-      <c r="E17" s="196"/>
+      <c r="C17" s="497" t="n">
+        <v>0.3368055555555556</v>
+      </c>
+      <c r="E17" s="497" t="n">
+        <v>0.7118055555555556</v>
+      </c>
       <c r="G17" s="193" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -13216,8 +13408,12 @@
       <c r="B18" s="195" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="196"/>
-      <c r="E18" s="196"/>
+      <c r="C18" s="497" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E18" s="497" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G18" s="193" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -13227,8 +13423,12 @@
       <c r="B19" s="195" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="196"/>
-      <c r="E19" s="196"/>
+      <c r="C19" s="497" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="E19" s="497" t="n">
+        <v>0.78125</v>
+      </c>
       <c r="G19" s="193" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -13258,19 +13458,26 @@
       <c r="B22" s="195" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="196"/>
-      <c r="E22" s="196"/>
-      <c r="G22" s="193" t="n">
-        <f>((E22-C22)*24)-1</f>
-        <v>0.0</v>
+      <c r="C22" s="196" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="196" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="193" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
       <c r="B23" s="195" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="196"/>
-      <c r="E23" s="196"/>
+      <c r="C23" s="497" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E23" s="497" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G23" s="193" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -13280,8 +13487,12 @@
       <c r="B24" s="195" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="196"/>
-      <c r="E24" s="196"/>
+      <c r="C24" s="497" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E24" s="497" t="n">
+        <v>0.7638888888888888</v>
+      </c>
       <c r="G24" s="193" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -13291,8 +13502,12 @@
       <c r="B25" s="195" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="196"/>
-      <c r="E25" s="196"/>
+      <c r="C25" s="497" t="n">
+        <v>0.3784722222222222</v>
+      </c>
+      <c r="E25" s="497" t="n">
+        <v>0.7534722222222222</v>
+      </c>
       <c r="G25" s="193" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -13302,8 +13517,12 @@
       <c r="B26" s="195" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="196"/>
-      <c r="E26" s="196"/>
+      <c r="C26" s="497" t="n">
+        <v>0.3770833333333333</v>
+      </c>
+      <c r="E26" s="497" t="n">
+        <v>0.7520833333333333</v>
+      </c>
       <c r="G26" s="193" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -13333,8 +13552,12 @@
       <c r="B29" s="195" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="196"/>
-      <c r="E29" s="196"/>
+      <c r="C29" s="497" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E29" s="497" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G29" s="193" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -13344,8 +13567,12 @@
       <c r="B30" s="195" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="196"/>
-      <c r="E30" s="196"/>
+      <c r="C30" s="497" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="E30" s="497" t="n">
+        <v>0.7916666666666666</v>
+      </c>
       <c r="G30" s="193" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -13355,8 +13582,12 @@
       <c r="B31" s="195" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="196"/>
-      <c r="E31" s="196"/>
+      <c r="C31" s="497" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="E31" s="497" t="n">
+        <v>0.78125</v>
+      </c>
       <c r="G31" s="193" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -13366,8 +13597,12 @@
       <c r="B32" s="195" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="196"/>
-      <c r="E32" s="196"/>
+      <c r="C32" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E32" s="497" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G32" s="193" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -13377,8 +13612,12 @@
       <c r="B33" s="195" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="196"/>
-      <c r="E33" s="196"/>
+      <c r="C33" s="497" t="n">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="E33" s="497" t="n">
+        <v>0.7048611111111112</v>
+      </c>
       <c r="G33" s="193" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -13408,8 +13647,12 @@
       <c r="B36" s="195" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="196"/>
-      <c r="E36" s="196"/>
+      <c r="C36" s="497" t="n">
+        <v>0.39791666666666664</v>
+      </c>
+      <c r="E36" s="497" t="n">
+        <v>0.7729166666666667</v>
+      </c>
       <c r="G36" s="193" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -13419,8 +13662,12 @@
       <c r="B37" s="195" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="196"/>
-      <c r="E37" s="196"/>
+      <c r="C37" s="497" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="E37" s="497" t="n">
+        <v>0.7847222222222222</v>
+      </c>
       <c r="G37" s="193" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -13430,8 +13677,12 @@
       <c r="B38" s="195" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="196"/>
-      <c r="E38" s="196"/>
+      <c r="C38" s="497" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E38" s="497" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G38" s="193" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -13441,8 +13692,12 @@
       <c r="B39" s="195" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="196"/>
-      <c r="E39" s="196"/>
+      <c r="C39" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E39" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G39" s="193" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -13452,8 +13707,12 @@
       <c r="B40" s="195" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="196"/>
-      <c r="E40" s="196"/>
+      <c r="C40" s="497" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E40" s="497" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G40" s="193" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -13483,8 +13742,12 @@
       <c r="B43" s="195" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="196"/>
-      <c r="E43" s="196"/>
+      <c r="C43" s="497" t="n">
+        <v>0.3993055555555556</v>
+      </c>
+      <c r="E43" s="497" t="n">
+        <v>0.7743055555555556</v>
+      </c>
       <c r="G43" s="193" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -13494,8 +13757,12 @@
       <c r="B44" s="195" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="196"/>
-      <c r="E44" s="196"/>
+      <c r="C44" s="497" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E44" s="497" t="n">
+        <v>0.7638888888888888</v>
+      </c>
       <c r="G44" s="193" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -13505,8 +13772,12 @@
       <c r="B45" s="195" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="196"/>
-      <c r="E45" s="196"/>
+      <c r="C45" s="497" t="n">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="E45" s="497" t="n">
+        <v>0.7590277777777777</v>
+      </c>
       <c r="G45" s="193" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
@@ -13516,8 +13787,12 @@
       <c r="B46" s="195" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="196"/>
-      <c r="E46" s="196"/>
+      <c r="C46" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E46" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G46" s="193" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -13641,23 +13916,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14253,23 +14528,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14873,23 +15148,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -15471,23 +15746,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -16073,23 +16348,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Nahomi Castro.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Nahomi Castro.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="471">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -5706,7 +5706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="498">
+  <cellXfs count="499">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6842,6 +6842,9 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -12493,6 +12496,7 @@
       <c r="H62" s="139"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -13182,6 +13186,7 @@
       <c r="H62" s="173"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B58:H62"/>
@@ -13378,10 +13383,10 @@
       <c r="B16" s="195" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="497" t="n">
+      <c r="C16" s="498" t="n">
         <v>0.3819444444444444</v>
       </c>
-      <c r="E16" s="497" t="n">
+      <c r="E16" s="498" t="n">
         <v>0.7569444444444444</v>
       </c>
       <c r="G16" s="193" t="n">
@@ -13393,10 +13398,10 @@
       <c r="B17" s="195" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="497" t="n">
+      <c r="C17" s="498" t="n">
         <v>0.3368055555555556</v>
       </c>
-      <c r="E17" s="497" t="n">
+      <c r="E17" s="498" t="n">
         <v>0.7118055555555556</v>
       </c>
       <c r="G17" s="193" t="n">
@@ -13408,10 +13413,10 @@
       <c r="B18" s="195" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="497" t="n">
+      <c r="C18" s="498" t="n">
         <v>0.3958333333333333</v>
       </c>
-      <c r="E18" s="497" t="n">
+      <c r="E18" s="498" t="n">
         <v>0.7708333333333334</v>
       </c>
       <c r="G18" s="193" t="n">
@@ -13423,10 +13428,10 @@
       <c r="B19" s="195" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="497" t="n">
+      <c r="C19" s="498" t="n">
         <v>0.40625</v>
       </c>
-      <c r="E19" s="497" t="n">
+      <c r="E19" s="498" t="n">
         <v>0.78125</v>
       </c>
       <c r="G19" s="193" t="n">
@@ -13472,10 +13477,10 @@
       <c r="B23" s="195" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="497" t="n">
+      <c r="C23" s="498" t="n">
         <v>0.3854166666666667</v>
       </c>
-      <c r="E23" s="497" t="n">
+      <c r="E23" s="498" t="n">
         <v>0.7604166666666666</v>
       </c>
       <c r="G23" s="193" t="n">
@@ -13487,10 +13492,10 @@
       <c r="B24" s="195" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="497" t="n">
+      <c r="C24" s="498" t="n">
         <v>0.3888888888888889</v>
       </c>
-      <c r="E24" s="497" t="n">
+      <c r="E24" s="498" t="n">
         <v>0.7638888888888888</v>
       </c>
       <c r="G24" s="193" t="n">
@@ -13502,10 +13507,10 @@
       <c r="B25" s="195" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="497" t="n">
+      <c r="C25" s="498" t="n">
         <v>0.3784722222222222</v>
       </c>
-      <c r="E25" s="497" t="n">
+      <c r="E25" s="498" t="n">
         <v>0.7534722222222222</v>
       </c>
       <c r="G25" s="193" t="n">
@@ -13517,10 +13522,10 @@
       <c r="B26" s="195" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="497" t="n">
+      <c r="C26" s="498" t="n">
         <v>0.3770833333333333</v>
       </c>
-      <c r="E26" s="497" t="n">
+      <c r="E26" s="498" t="n">
         <v>0.7520833333333333</v>
       </c>
       <c r="G26" s="193" t="n">
@@ -13552,10 +13557,10 @@
       <c r="B29" s="195" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="497" t="n">
+      <c r="C29" s="498" t="n">
         <v>0.3854166666666667</v>
       </c>
-      <c r="E29" s="497" t="n">
+      <c r="E29" s="498" t="n">
         <v>0.7604166666666666</v>
       </c>
       <c r="G29" s="193" t="n">
@@ -13567,10 +13572,10 @@
       <c r="B30" s="195" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="497" t="n">
+      <c r="C30" s="498" t="n">
         <v>0.4166666666666667</v>
       </c>
-      <c r="E30" s="497" t="n">
+      <c r="E30" s="498" t="n">
         <v>0.7916666666666666</v>
       </c>
       <c r="G30" s="193" t="n">
@@ -13582,10 +13587,10 @@
       <c r="B31" s="195" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="497" t="n">
+      <c r="C31" s="498" t="n">
         <v>0.40625</v>
       </c>
-      <c r="E31" s="497" t="n">
+      <c r="E31" s="498" t="n">
         <v>0.78125</v>
       </c>
       <c r="G31" s="193" t="n">
@@ -13597,11 +13602,11 @@
       <c r="B32" s="195" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="497" t="n">
+      <c r="C32" s="498" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E32" s="497" t="n">
-        <v>0.75</v>
+      <c r="E32" s="498" t="n">
+        <v>0.7083333333333334</v>
       </c>
       <c r="G32" s="193" t="n">
         <f>((E32-C32)*24)-1</f>
@@ -13612,10 +13617,10 @@
       <c r="B33" s="195" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="497" t="n">
+      <c r="C33" s="498" t="n">
         <v>0.3298611111111111</v>
       </c>
-      <c r="E33" s="497" t="n">
+      <c r="E33" s="498" t="n">
         <v>0.7048611111111112</v>
       </c>
       <c r="G33" s="193" t="n">
@@ -13647,10 +13652,10 @@
       <c r="B36" s="195" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="497" t="n">
+      <c r="C36" s="498" t="n">
         <v>0.39791666666666664</v>
       </c>
-      <c r="E36" s="497" t="n">
+      <c r="E36" s="498" t="n">
         <v>0.7729166666666667</v>
       </c>
       <c r="G36" s="193" t="n">
@@ -13662,10 +13667,10 @@
       <c r="B37" s="195" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="497" t="n">
+      <c r="C37" s="498" t="n">
         <v>0.4097222222222222</v>
       </c>
-      <c r="E37" s="497" t="n">
+      <c r="E37" s="498" t="n">
         <v>0.7847222222222222</v>
       </c>
       <c r="G37" s="193" t="n">
@@ -13677,10 +13682,10 @@
       <c r="B38" s="195" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="497" t="n">
+      <c r="C38" s="498" t="n">
         <v>0.3680555555555556</v>
       </c>
-      <c r="E38" s="497" t="n">
+      <c r="E38" s="498" t="n">
         <v>0.7430555555555556</v>
       </c>
       <c r="G38" s="193" t="n">
@@ -13692,10 +13697,10 @@
       <c r="B39" s="195" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="497" t="n">
+      <c r="C39" s="498" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E39" s="497" t="n">
+      <c r="E39" s="498" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="G39" s="193" t="n">
@@ -13707,10 +13712,10 @@
       <c r="B40" s="195" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="497" t="n">
+      <c r="C40" s="498" t="n">
         <v>0.3958333333333333</v>
       </c>
-      <c r="E40" s="497" t="n">
+      <c r="E40" s="498" t="n">
         <v>0.7708333333333334</v>
       </c>
       <c r="G40" s="193" t="n">
@@ -13742,10 +13747,10 @@
       <c r="B43" s="195" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="497" t="n">
+      <c r="C43" s="498" t="n">
         <v>0.3993055555555556</v>
       </c>
-      <c r="E43" s="497" t="n">
+      <c r="E43" s="498" t="n">
         <v>0.7743055555555556</v>
       </c>
       <c r="G43" s="193" t="n">
@@ -13757,10 +13762,10 @@
       <c r="B44" s="195" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="497" t="n">
+      <c r="C44" s="498" t="n">
         <v>0.3888888888888889</v>
       </c>
-      <c r="E44" s="497" t="n">
+      <c r="E44" s="498" t="n">
         <v>0.7638888888888888</v>
       </c>
       <c r="G44" s="193" t="n">
@@ -13772,10 +13777,10 @@
       <c r="B45" s="195" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="497" t="n">
+      <c r="C45" s="498" t="n">
         <v>0.3840277777777778</v>
       </c>
-      <c r="E45" s="497" t="n">
+      <c r="E45" s="498" t="n">
         <v>0.7590277777777777</v>
       </c>
       <c r="G45" s="193" t="n">
@@ -13787,10 +13792,10 @@
       <c r="B46" s="195" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="497" t="n">
+      <c r="C46" s="498" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E46" s="497" t="n">
+      <c r="E46" s="498" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="G46" s="193" t="n">
@@ -13894,6 +13899,7 @@
       <c r="H62" s="206"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Nahomi Castro.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Nahomi Castro.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="2022" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="1" sheetId="2" r:id="rId5"/>
@@ -17,7 +20,6 @@
     <sheet state="visible" name="11" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="12" sheetId="13" r:id="rId16"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="118">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -376,6 +378,12 @@
   </si>
   <si>
     <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Vacaciones anteriores</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1324,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="135">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1601,6 +1609,39 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="61" fillId="13" fontId="18" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2210,20 +2251,21 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:AC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.71"/>
-    <col customWidth="1" min="2" max="8" width="6.71"/>
-    <col customWidth="1" min="9" max="9" width="2.71"/>
-    <col customWidth="1" min="10" max="16" width="6.71"/>
-    <col customWidth="1" min="17" max="17" width="2.71"/>
-    <col customWidth="1" min="18" max="24" width="6.71"/>
-    <col customWidth="1" min="25" max="25" width="10.0"/>
-    <col customWidth="1" min="26" max="26" width="6.0"/>
-    <col customWidth="1" min="27" max="29" width="21.71"/>
+    <col min="1" max="1" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="27" max="29" customWidth="true" width="21.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
@@ -5164,24 +5206,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -6657,24 +6700,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -8157,24 +8201,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -9649,24 +9694,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -11148,24 +11194,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -12746,24 +12793,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -14332,24 +14380,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -15941,24 +15990,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -16113,8 +16163,12 @@
       <c r="B16" s="121">
         <v>1.0</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="130" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E16" s="130" t="n">
+        <v>0.7013888888888888</v>
+      </c>
       <c r="G16" s="106">
         <f>IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
         <v>0</v>
@@ -16144,8 +16198,12 @@
       <c r="B19" s="121">
         <v>4.0</v>
       </c>
-      <c r="C19" s="123"/>
-      <c r="E19" s="123"/>
+      <c r="C19" s="130" t="n">
+        <v>0.3402777777777778</v>
+      </c>
+      <c r="E19" s="130" t="n">
+        <v>0.7152777777777778</v>
+      </c>
       <c r="G19" s="106">
         <f t="shared" ref="G19:G23" si="1">IF((E19-C19)*24&lt;=4,(E19-C19)*24,(E19-C19)*24-1)</f>
         <v>0</v>
@@ -16155,8 +16213,12 @@
       <c r="B20" s="121">
         <v>5.0</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="E20" s="123"/>
+      <c r="C20" s="130" t="n">
+        <v>0.3472222222222222</v>
+      </c>
+      <c r="E20" s="130" t="n">
+        <v>0.7222222222222222</v>
+      </c>
       <c r="G20" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16166,8 +16228,12 @@
       <c r="B21" s="121">
         <v>6.0</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="E21" s="123"/>
+      <c r="C21" s="130" t="n">
+        <v>0.3375</v>
+      </c>
+      <c r="E21" s="130" t="n">
+        <v>0.7125</v>
+      </c>
       <c r="G21" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16177,8 +16243,12 @@
       <c r="B22" s="121">
         <v>7.0</v>
       </c>
-      <c r="C22" s="123"/>
-      <c r="E22" s="123"/>
+      <c r="C22" s="130" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E22" s="130" t="n">
+        <v>0.71875</v>
+      </c>
       <c r="G22" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16219,8 +16289,12 @@
       <c r="B26" s="121">
         <v>11.0</v>
       </c>
-      <c r="C26" s="123"/>
-      <c r="E26" s="123"/>
+      <c r="C26" s="130" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="130" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G26" s="106">
         <f t="shared" ref="G26:G29" si="2">IF((E26-C26)*24&lt;=4,(E26-C26)*24,(E26-C26)*24-1)</f>
         <v>0</v>
@@ -16230,8 +16304,12 @@
       <c r="B27" s="121">
         <v>12.0</v>
       </c>
-      <c r="C27" s="123"/>
-      <c r="E27" s="123"/>
+      <c r="C27" s="130" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E27" s="130" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G27" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -16241,8 +16319,12 @@
       <c r="B28" s="121">
         <v>13.0</v>
       </c>
-      <c r="C28" s="123"/>
-      <c r="E28" s="123"/>
+      <c r="C28" s="130" t="n">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="E28" s="130" t="n">
+        <v>0.7048611111111112</v>
+      </c>
       <c r="G28" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -16252,8 +16334,12 @@
       <c r="B29" s="121">
         <v>14.0</v>
       </c>
-      <c r="C29" s="123"/>
-      <c r="E29" s="123"/>
+      <c r="C29" s="130" t="n">
+        <v>0.3368055555555556</v>
+      </c>
+      <c r="E29" s="130" t="n">
+        <v>0.7118055555555556</v>
+      </c>
       <c r="G29" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -16303,44 +16389,56 @@
       <c r="B34" s="121">
         <v>19.0</v>
       </c>
-      <c r="C34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="G34" s="106">
-        <f t="shared" ref="G34:G37" si="3">IF((E34-C34)*24&lt;=4,(E34-C34)*24,(E34-C34)*24-1)</f>
-        <v>0</v>
+      <c r="C34" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="B35" s="121">
         <v>20.0</v>
       </c>
-      <c r="C35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="G35" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C35" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="B36" s="121">
         <v>21.0</v>
       </c>
-      <c r="C36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="G36" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C36" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="B37" s="121">
         <v>22.0</v>
       </c>
-      <c r="C37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="G37" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C37" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
@@ -16367,43 +16465,56 @@
       <c r="B40" s="121">
         <v>25.0</v>
       </c>
-      <c r="C40" s="123"/>
-      <c r="E40" s="123"/>
-      <c r="G40" s="106">
-        <f t="shared" ref="G40:G44" si="4">IF((E40-C40)*24&lt;=4,(E40-C40)*24,(E40-C40)*24-1)</f>
-        <v>0</v>
+      <c r="C40" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="B41" s="121">
         <v>26.0</v>
       </c>
-      <c r="C41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="G41" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C41" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="B42" s="121">
         <v>27.0</v>
       </c>
-      <c r="C42" s="123"/>
-      <c r="E42" s="123"/>
-      <c r="G42" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C42" s="130" t="n">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="E42" s="130" t="n">
+        <v>0.7569444444444444</v>
+      </c>
+      <c r="G42" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="B43" s="121">
         <v>28.0</v>
       </c>
-      <c r="C43" s="123"/>
-      <c r="E43" s="123"/>
+      <c r="C43" s="130" t="n">
+        <v>0.3375</v>
+      </c>
+      <c r="E43" s="130" t="n">
+        <v>0.7125</v>
+      </c>
       <c r="G43" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="4" ref="G43:G44">IF((E43-C43)*24&lt;=4,(E43-C43)*24,(E43-C43)*24-1)</f>
         <v>0</v>
       </c>
     </row>
@@ -16411,8 +16522,12 @@
       <c r="B44" s="121">
         <v>29.0</v>
       </c>
-      <c r="C44" s="123"/>
-      <c r="E44" s="123"/>
+      <c r="C44" s="130" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E44" s="130" t="n">
+        <v>0.71875</v>
+      </c>
       <c r="G44" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -17450,24 +17565,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -17632,8 +17748,12 @@
       <c r="B17" s="121">
         <v>2.0</v>
       </c>
-      <c r="C17" s="123"/>
-      <c r="E17" s="123"/>
+      <c r="C17" s="127" t="n">
+        <v>0.3784722222222222</v>
+      </c>
+      <c r="E17" s="127" t="n">
+        <v>0.7534722222222222</v>
+      </c>
       <c r="G17" s="106">
         <f t="shared" ref="G17:G21" si="1">IF((E17-C17)*24&lt;=4,(E17-C17)*24,(E17-C17)*24-1)</f>
         <v>0</v>
@@ -17643,8 +17763,12 @@
       <c r="B18" s="121">
         <v>3.0</v>
       </c>
-      <c r="C18" s="123"/>
-      <c r="E18" s="123"/>
+      <c r="C18" s="127" t="n">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="E18" s="127" t="n">
+        <v>0.7569444444444444</v>
+      </c>
       <c r="G18" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17654,8 +17778,12 @@
       <c r="B19" s="121">
         <v>4.0</v>
       </c>
-      <c r="C19" s="123"/>
-      <c r="E19" s="123"/>
+      <c r="C19" s="127" t="n">
+        <v>0.3784722222222222</v>
+      </c>
+      <c r="E19" s="127" t="n">
+        <v>0.7534722222222222</v>
+      </c>
       <c r="G19" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17665,8 +17793,12 @@
       <c r="B20" s="121">
         <v>5.0</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="E20" s="123"/>
+      <c r="C20" s="127" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E20" s="127" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G20" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17676,8 +17808,12 @@
       <c r="B21" s="121">
         <v>6.0</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="E21" s="123"/>
+      <c r="C21" s="127" t="n">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="E21" s="127" t="n">
+        <v>0.7569444444444444</v>
+      </c>
       <c r="G21" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17707,8 +17843,12 @@
       <c r="B24" s="121">
         <v>9.0</v>
       </c>
-      <c r="C24" s="123"/>
-      <c r="E24" s="123"/>
+      <c r="C24" s="127" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E24" s="127" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G24" s="106">
         <f t="shared" ref="G24:G28" si="2">IF((E24-C24)*24&lt;=4,(E24-C24)*24,(E24-C24)*24-1)</f>
         <v>0</v>
@@ -17718,8 +17858,12 @@
       <c r="B25" s="121">
         <v>10.0</v>
       </c>
-      <c r="C25" s="123"/>
-      <c r="E25" s="123"/>
+      <c r="C25" s="127" t="n">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E25" s="127" t="n">
+        <v>0.7361111111111112</v>
+      </c>
       <c r="G25" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17729,8 +17873,12 @@
       <c r="B26" s="121">
         <v>11.0</v>
       </c>
-      <c r="C26" s="123"/>
-      <c r="E26" s="123"/>
+      <c r="C26" s="127" t="n">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="E26" s="127" t="n">
+        <v>0.7569444444444444</v>
+      </c>
       <c r="G26" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17740,8 +17888,12 @@
       <c r="B27" s="121">
         <v>12.0</v>
       </c>
-      <c r="C27" s="123"/>
-      <c r="E27" s="123"/>
+      <c r="C27" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E27" s="127" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G27" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17751,8 +17903,12 @@
       <c r="B28" s="121">
         <v>13.0</v>
       </c>
-      <c r="C28" s="123"/>
-      <c r="E28" s="123"/>
+      <c r="C28" s="127" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E28" s="127" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G28" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17782,8 +17938,12 @@
       <c r="B31" s="121">
         <v>16.0</v>
       </c>
-      <c r="C31" s="123"/>
-      <c r="E31" s="123"/>
+      <c r="C31" s="127" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="127" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G31" s="106">
         <f t="shared" ref="G31:G35" si="3">IF((E31-C31)*24&lt;=4,(E31-C31)*24,(E31-C31)*24-1)</f>
         <v>0</v>
@@ -17793,8 +17953,12 @@
       <c r="B32" s="121">
         <v>17.0</v>
       </c>
-      <c r="C32" s="123"/>
-      <c r="E32" s="123"/>
+      <c r="C32" s="127" t="n">
+        <v>0.3784722222222222</v>
+      </c>
+      <c r="E32" s="127" t="n">
+        <v>0.7534722222222222</v>
+      </c>
       <c r="G32" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -17804,8 +17968,12 @@
       <c r="B33" s="121">
         <v>18.0</v>
       </c>
-      <c r="C33" s="123"/>
-      <c r="E33" s="123"/>
+      <c r="C33" s="127" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E33" s="127" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G33" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -17815,8 +17983,12 @@
       <c r="B34" s="121">
         <v>19.0</v>
       </c>
-      <c r="C34" s="123"/>
-      <c r="E34" s="123"/>
+      <c r="C34" s="127" t="n">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="E34" s="127" t="n">
+        <v>0.7673611111111112</v>
+      </c>
       <c r="G34" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -17826,8 +17998,12 @@
       <c r="B35" s="121">
         <v>20.0</v>
       </c>
-      <c r="C35" s="123"/>
-      <c r="E35" s="123"/>
+      <c r="C35" s="127" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E35" s="127" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G35" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -17857,8 +18033,12 @@
       <c r="B38" s="121">
         <v>23.0</v>
       </c>
-      <c r="C38" s="123"/>
-      <c r="E38" s="123"/>
+      <c r="C38" s="127" t="n">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="E38" s="127" t="n">
+        <v>0.7326388888888888</v>
+      </c>
       <c r="G38" s="106">
         <f t="shared" ref="G38:G42" si="4">IF((E38-C38)*24&lt;=4,(E38-C38)*24,(E38-C38)*24-1)</f>
         <v>0</v>
@@ -17868,8 +18048,12 @@
       <c r="B39" s="121">
         <v>24.0</v>
       </c>
-      <c r="C39" s="123"/>
-      <c r="E39" s="123"/>
+      <c r="C39" s="127" t="n">
+        <v>0.3472222222222222</v>
+      </c>
+      <c r="E39" s="127" t="n">
+        <v>0.7222222222222222</v>
+      </c>
       <c r="G39" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -17879,8 +18063,12 @@
       <c r="B40" s="121">
         <v>25.0</v>
       </c>
-      <c r="C40" s="123"/>
-      <c r="E40" s="123"/>
+      <c r="C40" s="127" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E40" s="127" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G40" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -17890,8 +18078,12 @@
       <c r="B41" s="121">
         <v>26.0</v>
       </c>
-      <c r="C41" s="123"/>
-      <c r="E41" s="123"/>
+      <c r="C41" s="127" t="n">
+        <v>0.3715277777777778</v>
+      </c>
+      <c r="E41" s="127" t="n">
+        <v>0.7465277777777778</v>
+      </c>
       <c r="G41" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -17901,8 +18093,12 @@
       <c r="B42" s="121">
         <v>27.0</v>
       </c>
-      <c r="C42" s="123"/>
-      <c r="E42" s="123"/>
+      <c r="C42" s="127" t="n">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E42" s="127" t="n">
+        <v>0.7361111111111112</v>
+      </c>
       <c r="G42" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -17932,8 +18128,12 @@
       <c r="B45" s="121">
         <v>30.0</v>
       </c>
-      <c r="C45" s="123"/>
-      <c r="E45" s="123"/>
+      <c r="C45" s="127" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E45" s="127" t="n">
+        <v>0.7638888888888888</v>
+      </c>
       <c r="G45" s="106">
         <f t="shared" ref="G45:G46" si="5">IF((E45-C45)*24&lt;=4,(E45-C45)*24,(E45-C45)*24-1)</f>
         <v>0</v>
@@ -17943,8 +18143,12 @@
       <c r="B46" s="121">
         <v>31.0</v>
       </c>
-      <c r="C46" s="123"/>
-      <c r="E46" s="123"/>
+      <c r="C46" s="127" t="n">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="E46" s="127" t="n">
+        <v>0.7569444444444444</v>
+      </c>
       <c r="G46" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -18967,24 +19171,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -19129,8 +19334,12 @@
       <c r="B16" s="121">
         <v>1.0</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="132" t="n">
+        <v>0.3402777777777778</v>
+      </c>
+      <c r="E16" s="132" t="n">
+        <v>0.7152777777777778</v>
+      </c>
       <c r="G16" s="106">
         <f t="shared" ref="G16:G18" si="1">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
         <v>0</v>
@@ -19140,8 +19349,12 @@
       <c r="B17" s="121">
         <v>2.0</v>
       </c>
-      <c r="C17" s="123"/>
-      <c r="E17" s="123"/>
+      <c r="C17" s="132" t="n">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="E17" s="132" t="n">
+        <v>0.7673611111111112</v>
+      </c>
       <c r="G17" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -19151,8 +19364,12 @@
       <c r="B18" s="121">
         <v>3.0</v>
       </c>
-      <c r="C18" s="123"/>
-      <c r="E18" s="123"/>
+      <c r="C18" s="132" t="n">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="E18" s="132" t="n">
+        <v>0.7569444444444444</v>
+      </c>
       <c r="G18" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -19192,8 +19409,12 @@
       <c r="B22" s="121">
         <v>7.0</v>
       </c>
-      <c r="C22" s="123"/>
-      <c r="E22" s="123"/>
+      <c r="C22" s="132" t="n">
+        <v>0.3784722222222222</v>
+      </c>
+      <c r="E22" s="132" t="n">
+        <v>0.7534722222222222</v>
+      </c>
       <c r="G22" s="106">
         <f t="shared" ref="G22:G25" si="2">IF((E22-C22)*24&lt;=4,(E22-C22)*24,(E22-C22)*24-1)</f>
         <v>0</v>
@@ -19203,8 +19424,12 @@
       <c r="B23" s="121">
         <v>8.0</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="E23" s="123"/>
+      <c r="C23" s="132" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E23" s="132" t="n">
+        <v>0.71875</v>
+      </c>
       <c r="G23" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -19214,8 +19439,12 @@
       <c r="B24" s="121">
         <v>9.0</v>
       </c>
-      <c r="C24" s="123"/>
-      <c r="E24" s="123"/>
+      <c r="C24" s="132" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E24" s="132" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G24" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -19225,8 +19454,12 @@
       <c r="B25" s="121">
         <v>10.0</v>
       </c>
-      <c r="C25" s="123"/>
-      <c r="E25" s="123"/>
+      <c r="C25" s="132" t="n">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="E25" s="132" t="n">
+        <v>0.7569444444444444</v>
+      </c>
       <c r="G25" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -19256,8 +19489,12 @@
       <c r="B28" s="121">
         <v>13.0</v>
       </c>
-      <c r="C28" s="123"/>
-      <c r="E28" s="123"/>
+      <c r="C28" s="132" t="n">
+        <v>0.3402777777777778</v>
+      </c>
+      <c r="E28" s="132" t="n">
+        <v>0.7152777777777778</v>
+      </c>
       <c r="G28" s="106">
         <f t="shared" ref="G28:G32" si="3">IF((E28-C28)*24&lt;=4,(E28-C28)*24,(E28-C28)*24-1)</f>
         <v>0</v>
@@ -19267,8 +19504,12 @@
       <c r="B29" s="121">
         <v>14.0</v>
       </c>
-      <c r="C29" s="123"/>
-      <c r="E29" s="123"/>
+      <c r="C29" s="132" t="n">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="E29" s="132" t="n">
+        <v>0.7569444444444444</v>
+      </c>
       <c r="G29" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19278,8 +19519,12 @@
       <c r="B30" s="121">
         <v>15.0</v>
       </c>
-      <c r="C30" s="123"/>
-      <c r="E30" s="123"/>
+      <c r="C30" s="132" t="n">
+        <v>0.3506944444444444</v>
+      </c>
+      <c r="E30" s="132" t="n">
+        <v>0.7256944444444444</v>
+      </c>
       <c r="G30" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19289,8 +19534,12 @@
       <c r="B31" s="121">
         <v>16.0</v>
       </c>
-      <c r="C31" s="123"/>
-      <c r="E31" s="123"/>
+      <c r="C31" s="132" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E31" s="132" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G31" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19300,8 +19549,12 @@
       <c r="B32" s="121">
         <v>17.0</v>
       </c>
-      <c r="C32" s="123"/>
-      <c r="E32" s="123"/>
+      <c r="C32" s="132" t="n">
+        <v>0.3472222222222222</v>
+      </c>
+      <c r="E32" s="132" t="n">
+        <v>0.7222222222222222</v>
+      </c>
       <c r="G32" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19331,44 +19584,56 @@
       <c r="B35" s="121">
         <v>20.0</v>
       </c>
-      <c r="C35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="G35" s="106">
-        <f t="shared" ref="G35:G38" si="4">IF((E35-C35)*24&lt;=4,(E35-C35)*24,(E35-C35)*24-1)</f>
-        <v>0</v>
+      <c r="C35" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="B36" s="121">
         <v>21.0</v>
       </c>
-      <c r="C36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="G36" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C36" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="B37" s="121">
         <v>22.0</v>
       </c>
-      <c r="C37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="G37" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C37" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="B38" s="121">
         <v>23.0</v>
       </c>
-      <c r="C38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="G38" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C38" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
@@ -19405,8 +19670,12 @@
       <c r="B42" s="121">
         <v>27.0</v>
       </c>
-      <c r="C42" s="123"/>
-      <c r="E42" s="123"/>
+      <c r="C42" s="132" t="n">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="E42" s="132" t="n">
+        <v>0.7569444444444444</v>
+      </c>
       <c r="G42" s="106">
         <f t="shared" ref="G42:G45" si="5">IF((E42-C42)*24&lt;=4,(E42-C42)*24,(E42-C42)*24-1)</f>
         <v>0</v>
@@ -19416,8 +19685,12 @@
       <c r="B43" s="121">
         <v>28.0</v>
       </c>
-      <c r="C43" s="123"/>
-      <c r="E43" s="123"/>
+      <c r="C43" s="132" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E43" s="132" t="n">
+        <v>0.7638888888888888</v>
+      </c>
       <c r="G43" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -19427,8 +19700,12 @@
       <c r="B44" s="121">
         <v>29.0</v>
       </c>
-      <c r="C44" s="123"/>
-      <c r="E44" s="123"/>
+      <c r="C44" s="132" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E44" s="132" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G44" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -19438,8 +19715,12 @@
       <c r="B45" s="121">
         <v>30.0</v>
       </c>
-      <c r="C45" s="123"/>
-      <c r="E45" s="123"/>
+      <c r="C45" s="132" t="n">
+        <v>0.3993055555555556</v>
+      </c>
+      <c r="E45" s="132" t="n">
+        <v>0.7743055555555556</v>
+      </c>
       <c r="G45" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -20463,24 +20744,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -20620,8 +20902,12 @@
       <c r="B16" s="121">
         <v>1.0</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="134" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="106">
         <f>IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
         <v>0</v>
@@ -20651,8 +20937,12 @@
       <c r="B19" s="121">
         <v>4.0</v>
       </c>
-      <c r="C19" s="123"/>
-      <c r="E19" s="123"/>
+      <c r="C19" s="134" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E19" s="134" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G19" s="106">
         <f t="shared" ref="G19:G23" si="1">IF((E19-C19)*24&lt;=4,(E19-C19)*24,(E19-C19)*24-1)</f>
         <v>0</v>
@@ -20662,8 +20952,12 @@
       <c r="B20" s="121">
         <v>5.0</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="E20" s="123"/>
+      <c r="C20" s="134" t="n">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="E20" s="134" t="n">
+        <v>0.7569444444444444</v>
+      </c>
       <c r="G20" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20673,8 +20967,12 @@
       <c r="B21" s="121">
         <v>6.0</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="E21" s="123"/>
+      <c r="C21" s="134" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E21" s="134" t="n">
+        <v>0.7638888888888888</v>
+      </c>
       <c r="G21" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20684,8 +20982,12 @@
       <c r="B22" s="121">
         <v>7.0</v>
       </c>
-      <c r="C22" s="123"/>
-      <c r="E22" s="123"/>
+      <c r="C22" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="134" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G22" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20695,8 +20997,12 @@
       <c r="B23" s="121">
         <v>8.0</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="E23" s="123"/>
+      <c r="C23" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="134" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G23" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20726,8 +21032,12 @@
       <c r="B26" s="121">
         <v>11.0</v>
       </c>
-      <c r="C26" s="123"/>
-      <c r="E26" s="123"/>
+      <c r="C26" s="134" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E26" s="134" t="n">
+        <v>0.7638888888888888</v>
+      </c>
       <c r="G26" s="106">
         <f t="shared" ref="G26:G30" si="2">IF((E26-C26)*24&lt;=4,(E26-C26)*24,(E26-C26)*24-1)</f>
         <v>0</v>
@@ -20737,8 +21047,12 @@
       <c r="B27" s="121">
         <v>12.0</v>
       </c>
-      <c r="C27" s="123"/>
-      <c r="E27" s="123"/>
+      <c r="C27" s="134" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E27" s="134" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G27" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -20748,8 +21062,12 @@
       <c r="B28" s="121">
         <v>13.0</v>
       </c>
-      <c r="C28" s="123"/>
-      <c r="E28" s="123"/>
+      <c r="C28" s="134" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E28" s="134" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G28" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -20759,8 +21077,12 @@
       <c r="B29" s="121">
         <v>14.0</v>
       </c>
-      <c r="C29" s="123"/>
-      <c r="E29" s="123"/>
+      <c r="C29" s="134" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E29" s="134" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G29" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -20770,8 +21092,12 @@
       <c r="B30" s="121">
         <v>15.0</v>
       </c>
-      <c r="C30" s="123"/>
-      <c r="E30" s="123"/>
+      <c r="C30" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="134" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G30" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -20801,8 +21127,12 @@
       <c r="B33" s="121">
         <v>18.0</v>
       </c>
-      <c r="C33" s="123"/>
-      <c r="E33" s="123"/>
+      <c r="C33" s="134" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E33" s="134" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G33" s="106">
         <f t="shared" ref="G33:G37" si="3">IF((E33-C33)*24&lt;=4,(E33-C33)*24,(E33-C33)*24-1)</f>
         <v>0</v>
@@ -20812,8 +21142,12 @@
       <c r="B34" s="121">
         <v>19.0</v>
       </c>
-      <c r="C34" s="123"/>
-      <c r="E34" s="123"/>
+      <c r="C34" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E34" s="134" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G34" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20823,8 +21157,12 @@
       <c r="B35" s="121">
         <v>20.0</v>
       </c>
-      <c r="C35" s="123"/>
-      <c r="E35" s="123"/>
+      <c r="C35" s="134" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E35" s="134" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G35" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20834,8 +21172,12 @@
       <c r="B36" s="121">
         <v>21.0</v>
       </c>
-      <c r="C36" s="123"/>
-      <c r="E36" s="123"/>
+      <c r="C36" s="134" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E36" s="134" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G36" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20845,8 +21187,12 @@
       <c r="B37" s="121">
         <v>22.0</v>
       </c>
-      <c r="C37" s="123"/>
-      <c r="E37" s="123"/>
+      <c r="C37" s="134" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="E37" s="134" t="n">
+        <v>0.7916666666666666</v>
+      </c>
       <c r="G37" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -20876,8 +21222,12 @@
       <c r="B40" s="121">
         <v>25.0</v>
       </c>
-      <c r="C40" s="123"/>
-      <c r="E40" s="123"/>
+      <c r="C40" s="134" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E40" s="134" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G40" s="106">
         <f t="shared" ref="G40:G41" si="4">IF((E40-C40)*24&lt;=4,(E40-C40)*24,(E40-C40)*24-1)</f>
         <v>0</v>
@@ -20887,8 +21237,12 @@
       <c r="B41" s="121">
         <v>26.0</v>
       </c>
-      <c r="C41" s="123"/>
-      <c r="E41" s="123"/>
+      <c r="C41" s="134" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E41" s="134" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G41" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -20918,11 +21272,14 @@
       <c r="B44" s="121">
         <v>29.0</v>
       </c>
-      <c r="C44" s="123"/>
-      <c r="E44" s="123"/>
-      <c r="G44" s="106">
-        <f>IF((E44-C44)*24&lt;=4,(E44-C44)*24,(E44-C44)*24-1)</f>
-        <v>0</v>
+      <c r="C44" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
@@ -21962,24 +22319,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Nahomi Castro.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Nahomi Castro.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="118">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -1324,7 +1324,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="138">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1609,6 +1609,15 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="61" fillId="13" fontId="18" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
@@ -12772,6 +12781,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -14359,6 +14369,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -15969,6 +15980,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -17544,6 +17556,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -19150,6 +19163,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -20723,6 +20737,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -22298,6 +22313,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -22477,8 +22493,12 @@
       <c r="B16" s="121">
         <v>1.0</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="137" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="137" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="106">
         <f t="shared" ref="G16:G20" si="1">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
         <v>0</v>
@@ -22488,8 +22508,12 @@
       <c r="B17" s="121">
         <v>2.0</v>
       </c>
-      <c r="C17" s="123"/>
-      <c r="E17" s="123"/>
+      <c r="C17" s="137" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E17" s="137" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G17" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22499,8 +22523,12 @@
       <c r="B18" s="121">
         <v>3.0</v>
       </c>
-      <c r="C18" s="123"/>
-      <c r="E18" s="123"/>
+      <c r="C18" s="137" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E18" s="137" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G18" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22510,8 +22538,12 @@
       <c r="B19" s="121">
         <v>4.0</v>
       </c>
-      <c r="C19" s="123"/>
-      <c r="E19" s="123"/>
+      <c r="C19" s="137" t="n">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="E19" s="137" t="n">
+        <v>0.7569444444444444</v>
+      </c>
       <c r="G19" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22521,8 +22553,12 @@
       <c r="B20" s="121">
         <v>5.0</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="E20" s="123"/>
+      <c r="C20" s="137" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E20" s="137" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G20" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22552,8 +22588,12 @@
       <c r="B23" s="121">
         <v>8.0</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="E23" s="123"/>
+      <c r="C23" s="137" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E23" s="137" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G23" s="106">
         <f t="shared" ref="G23:G27" si="2">IF((E23-C23)*24&lt;=4,(E23-C23)*24,(E23-C23)*24-1)</f>
         <v>0</v>
@@ -22563,8 +22603,12 @@
       <c r="B24" s="121">
         <v>9.0</v>
       </c>
-      <c r="C24" s="123"/>
-      <c r="E24" s="123"/>
+      <c r="C24" s="137" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E24" s="137" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G24" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -22574,8 +22618,12 @@
       <c r="B25" s="121">
         <v>10.0</v>
       </c>
-      <c r="C25" s="123"/>
-      <c r="E25" s="123"/>
+      <c r="C25" s="137" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="137" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G25" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -22585,8 +22633,12 @@
       <c r="B26" s="121">
         <v>11.0</v>
       </c>
-      <c r="C26" s="123"/>
-      <c r="E26" s="123"/>
+      <c r="C26" s="137" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E26" s="137" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G26" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -22596,8 +22648,12 @@
       <c r="B27" s="121">
         <v>12.0</v>
       </c>
-      <c r="C27" s="123"/>
-      <c r="E27" s="123"/>
+      <c r="C27" s="137" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E27" s="137" t="n">
+        <v>0.7638888888888888</v>
+      </c>
       <c r="G27" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -22701,55 +22757,70 @@
       <c r="B37" s="121">
         <v>22.0</v>
       </c>
-      <c r="C37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="G37" s="106">
-        <f t="shared" ref="G37:G41" si="4">IF((E37-C37)*24&lt;=4,(E37-C37)*24,(E37-C37)*24-1)</f>
-        <v>0</v>
+      <c r="C37" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="B38" s="121">
         <v>23.0</v>
       </c>
-      <c r="C38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="G38" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C38" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="B39" s="121">
         <v>24.0</v>
       </c>
-      <c r="C39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="G39" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C39" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="B40" s="121">
         <v>25.0</v>
       </c>
-      <c r="C40" s="123"/>
-      <c r="E40" s="123"/>
-      <c r="G40" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C40" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="B41" s="121">
         <v>26.0</v>
       </c>
-      <c r="C41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="G41" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C41" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
